--- a/MainTop/26.08.2024/ozon_print_A.xlsx
+++ b/MainTop/26.08.2024/ozon_print_A.xlsx
@@ -284,11 +284,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -320,6 +319,14 @@
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="0"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -371,7 +378,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -380,7 +387,11 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -403,8 +414,8 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L72" activeCellId="0" sqref="L72"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -412,7 +423,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="2" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="20.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -437,7 +450,7 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -479,7 +492,8 @@
         <v>13</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>6</v>
+        <f aca="false">H2/2</f>
+        <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -514,7 +528,8 @@
         <v>13</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>6</v>
+        <f aca="false">H3/2</f>
+        <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -549,7 +564,8 @@
         <v>13</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>4</v>
+        <f aca="false">H4/2</f>
+        <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -584,7 +600,8 @@
         <v>13</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>4</v>
+        <f aca="false">H5/2</f>
+        <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -619,7 +636,8 @@
         <v>13</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>4</v>
+        <f aca="false">H6/2</f>
+        <v>2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -654,7 +672,8 @@
         <v>13</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>4</v>
+        <f aca="false">H7/2</f>
+        <v>2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -689,7 +708,8 @@
         <v>13</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>4</v>
+        <f aca="false">H8/2</f>
+        <v>2</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -724,7 +744,8 @@
         <v>13</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>4</v>
+        <f aca="false">H9/2</f>
+        <v>2</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -759,7 +780,8 @@
         <v>13</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>4</v>
+        <f aca="false">H10/2</f>
+        <v>2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -794,7 +816,8 @@
         <v>13</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>2</v>
+        <f aca="false">H11/2</f>
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -829,7 +852,8 @@
         <v>13</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>2</v>
+        <f aca="false">H12/2</f>
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -864,7 +888,8 @@
         <v>13</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>2</v>
+        <f aca="false">H13/2</f>
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -899,7 +924,8 @@
         <v>13</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>2</v>
+        <f aca="false">H14/2</f>
+        <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -934,7 +960,8 @@
         <v>13</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>2</v>
+        <f aca="false">H15/2</f>
+        <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -969,7 +996,8 @@
         <v>13</v>
       </c>
       <c r="K16" s="0" t="n">
-        <v>2</v>
+        <f aca="false">H16/2</f>
+        <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1004,7 +1032,8 @@
         <v>13</v>
       </c>
       <c r="K17" s="0" t="n">
-        <v>2</v>
+        <f aca="false">H17/2</f>
+        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1039,7 +1068,8 @@
         <v>13</v>
       </c>
       <c r="K18" s="0" t="n">
-        <v>2</v>
+        <f aca="false">H18/2</f>
+        <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1074,7 +1104,8 @@
         <v>13</v>
       </c>
       <c r="K19" s="0" t="n">
-        <v>2</v>
+        <f aca="false">H19/2</f>
+        <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1109,7 +1140,8 @@
         <v>13</v>
       </c>
       <c r="K20" s="0" t="n">
-        <v>2</v>
+        <f aca="false">H20/2</f>
+        <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1144,7 +1176,8 @@
         <v>13</v>
       </c>
       <c r="K21" s="0" t="n">
-        <v>2</v>
+        <f aca="false">H21/2</f>
+        <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1179,7 +1212,8 @@
         <v>13</v>
       </c>
       <c r="K22" s="0" t="n">
-        <v>2</v>
+        <f aca="false">H22/2</f>
+        <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1214,7 +1248,8 @@
         <v>13</v>
       </c>
       <c r="K23" s="0" t="n">
-        <v>2</v>
+        <f aca="false">H23/2</f>
+        <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1249,7 +1284,8 @@
         <v>13</v>
       </c>
       <c r="K24" s="0" t="n">
-        <v>2</v>
+        <f aca="false">H24/2</f>
+        <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1284,7 +1320,8 @@
         <v>13</v>
       </c>
       <c r="K25" s="0" t="n">
-        <v>2</v>
+        <f aca="false">H25/2</f>
+        <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1319,7 +1356,8 @@
         <v>13</v>
       </c>
       <c r="K26" s="0" t="n">
-        <v>2</v>
+        <f aca="false">H26/2</f>
+        <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1354,7 +1392,8 @@
         <v>13</v>
       </c>
       <c r="K27" s="0" t="n">
-        <v>2</v>
+        <f aca="false">H27/2</f>
+        <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1389,7 +1428,8 @@
         <v>13</v>
       </c>
       <c r="K28" s="0" t="n">
-        <v>2</v>
+        <f aca="false">H28/2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1424,8 +1464,8 @@
         <v>42</v>
       </c>
       <c r="K29" s="0" t="n">
-        <f aca="false">H29/4</f>
-        <v>8</v>
+        <f aca="false">H29/2</f>
+        <v>16</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1459,9 +1499,9 @@
       <c r="J30" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="K30" s="2" t="n">
-        <f aca="false">H30/4</f>
-        <v>6</v>
+      <c r="K30" s="0" t="n">
+        <f aca="false">H30/2</f>
+        <v>12</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1495,9 +1535,9 @@
       <c r="J31" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="K31" s="2" t="n">
-        <f aca="false">H31/4</f>
-        <v>4</v>
+      <c r="K31" s="0" t="n">
+        <f aca="false">H31/2</f>
+        <v>8</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1531,9 +1571,9 @@
       <c r="J32" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="K32" s="2" t="n">
-        <f aca="false">H32/4</f>
-        <v>2</v>
+      <c r="K32" s="0" t="n">
+        <f aca="false">H32/2</f>
+        <v>4</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1567,9 +1607,9 @@
       <c r="J33" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="K33" s="2" t="n">
-        <f aca="false">H33/4</f>
-        <v>1</v>
+      <c r="K33" s="0" t="n">
+        <f aca="false">H33/2</f>
+        <v>2</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1603,9 +1643,9 @@
       <c r="J34" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="K34" s="2" t="n">
-        <f aca="false">H34/4</f>
-        <v>1</v>
+      <c r="K34" s="0" t="n">
+        <f aca="false">H34/2</f>
+        <v>2</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1639,9 +1679,9 @@
       <c r="J35" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="K35" s="2" t="n">
-        <f aca="false">H35/4</f>
-        <v>1</v>
+      <c r="K35" s="0" t="n">
+        <f aca="false">H35/2</f>
+        <v>2</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1675,9 +1715,9 @@
       <c r="J36" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="K36" s="2" t="n">
-        <f aca="false">H36/4</f>
-        <v>1</v>
+      <c r="K36" s="0" t="n">
+        <f aca="false">H36/2</f>
+        <v>2</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1711,9 +1751,9 @@
       <c r="J37" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="K37" s="2" t="n">
-        <f aca="false">H37/4</f>
-        <v>1</v>
+      <c r="K37" s="0" t="n">
+        <f aca="false">H37/2</f>
+        <v>2</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1747,9 +1787,9 @@
       <c r="J38" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="K38" s="2" t="n">
-        <f aca="false">H38/4</f>
-        <v>1</v>
+      <c r="K38" s="0" t="n">
+        <f aca="false">H38/2</f>
+        <v>2</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1783,9 +1823,9 @@
       <c r="J39" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="K39" s="2" t="n">
-        <f aca="false">H39/4</f>
-        <v>1</v>
+      <c r="K39" s="0" t="n">
+        <f aca="false">H39/2</f>
+        <v>2</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1819,9 +1859,9 @@
       <c r="J40" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="K40" s="2" t="n">
-        <f aca="false">H40/4</f>
-        <v>1</v>
+      <c r="K40" s="0" t="n">
+        <f aca="false">H40/2</f>
+        <v>2</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1855,9 +1895,9 @@
       <c r="J41" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="K41" s="2" t="n">
-        <f aca="false">H41/4</f>
-        <v>1</v>
+      <c r="K41" s="0" t="n">
+        <f aca="false">H41/2</f>
+        <v>2</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1882,7 +1922,7 @@
       <c r="G42" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="H42" s="2" t="n">
+      <c r="H42" s="3" t="n">
         <v>4</v>
       </c>
       <c r="I42" s="0" t="n">
@@ -1891,9 +1931,9 @@
       <c r="J42" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="K42" s="2" t="n">
-        <f aca="false">H42/4</f>
-        <v>1</v>
+      <c r="K42" s="0" t="n">
+        <f aca="false">H42/2</f>
+        <v>2</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1918,7 +1958,7 @@
       <c r="G43" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="H43" s="2" t="n">
+      <c r="H43" s="3" t="n">
         <v>4</v>
       </c>
       <c r="I43" s="0" t="n">
@@ -1927,9 +1967,9 @@
       <c r="J43" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="K43" s="2" t="n">
-        <f aca="false">H43/4</f>
-        <v>1</v>
+      <c r="K43" s="0" t="n">
+        <f aca="false">H43/2</f>
+        <v>2</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1954,7 +1994,7 @@
       <c r="G44" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="H44" s="2" t="n">
+      <c r="H44" s="3" t="n">
         <v>4</v>
       </c>
       <c r="I44" s="0" t="n">
@@ -1963,9 +2003,9 @@
       <c r="J44" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="K44" s="2" t="n">
-        <f aca="false">H44/4</f>
-        <v>1</v>
+      <c r="K44" s="0" t="n">
+        <f aca="false">H44/2</f>
+        <v>2</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1990,7 +2030,7 @@
       <c r="G45" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="H45" s="2" t="n">
+      <c r="H45" s="3" t="n">
         <v>4</v>
       </c>
       <c r="I45" s="0" t="n">
@@ -1999,9 +2039,9 @@
       <c r="J45" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="K45" s="2" t="n">
-        <f aca="false">H45/4</f>
-        <v>1</v>
+      <c r="K45" s="0" t="n">
+        <f aca="false">H45/2</f>
+        <v>2</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2026,7 +2066,7 @@
       <c r="G46" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="H46" s="2" t="n">
+      <c r="H46" s="3" t="n">
         <v>4</v>
       </c>
       <c r="I46" s="0" t="n">
@@ -2035,9 +2075,9 @@
       <c r="J46" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="K46" s="2" t="n">
-        <f aca="false">H46/4</f>
-        <v>1</v>
+      <c r="K46" s="0" t="n">
+        <f aca="false">H46/2</f>
+        <v>2</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2062,7 +2102,7 @@
       <c r="G47" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="H47" s="2" t="n">
+      <c r="H47" s="3" t="n">
         <v>4</v>
       </c>
       <c r="I47" s="0" t="n">
@@ -2071,9 +2111,9 @@
       <c r="J47" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="K47" s="2" t="n">
-        <f aca="false">H47/4</f>
-        <v>1</v>
+      <c r="K47" s="0" t="n">
+        <f aca="false">H47/2</f>
+        <v>2</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2098,7 +2138,7 @@
       <c r="G48" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="H48" s="2" t="n">
+      <c r="H48" s="3" t="n">
         <v>4</v>
       </c>
       <c r="I48" s="0" t="n">
@@ -2107,9 +2147,9 @@
       <c r="J48" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="K48" s="2" t="n">
-        <f aca="false">H48/4</f>
-        <v>1</v>
+      <c r="K48" s="0" t="n">
+        <f aca="false">H48/2</f>
+        <v>2</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2134,7 +2174,7 @@
       <c r="G49" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="H49" s="2" t="n">
+      <c r="H49" s="3" t="n">
         <v>4</v>
       </c>
       <c r="I49" s="0" t="n">
@@ -2143,9 +2183,9 @@
       <c r="J49" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="K49" s="2" t="n">
-        <f aca="false">H49/4</f>
-        <v>1</v>
+      <c r="K49" s="0" t="n">
+        <f aca="false">H49/2</f>
+        <v>2</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2170,7 +2210,7 @@
       <c r="G50" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="H50" s="2" t="n">
+      <c r="H50" s="3" t="n">
         <v>4</v>
       </c>
       <c r="I50" s="0" t="n">
@@ -2179,9 +2219,9 @@
       <c r="J50" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="K50" s="2" t="n">
-        <f aca="false">H50/4</f>
-        <v>1</v>
+      <c r="K50" s="0" t="n">
+        <f aca="false">H50/2</f>
+        <v>2</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2206,7 +2246,7 @@
       <c r="G51" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="H51" s="2" t="n">
+      <c r="H51" s="3" t="n">
         <v>4</v>
       </c>
       <c r="I51" s="0" t="n">
@@ -2215,9 +2255,9 @@
       <c r="J51" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="K51" s="2" t="n">
-        <f aca="false">H51/4</f>
-        <v>1</v>
+      <c r="K51" s="0" t="n">
+        <f aca="false">H51/2</f>
+        <v>2</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2242,7 +2282,7 @@
       <c r="G52" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="H52" s="2" t="n">
+      <c r="H52" s="3" t="n">
         <v>4</v>
       </c>
       <c r="I52" s="0" t="n">
@@ -2251,9 +2291,9 @@
       <c r="J52" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="K52" s="2" t="n">
-        <f aca="false">H52/4</f>
-        <v>1</v>
+      <c r="K52" s="0" t="n">
+        <f aca="false">H52/2</f>
+        <v>2</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2278,7 +2318,7 @@
       <c r="G53" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="H53" s="2" t="n">
+      <c r="H53" s="3" t="n">
         <v>4</v>
       </c>
       <c r="I53" s="0" t="n">
@@ -2287,9 +2327,9 @@
       <c r="J53" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="K53" s="2" t="n">
-        <f aca="false">H53/4</f>
-        <v>1</v>
+      <c r="K53" s="0" t="n">
+        <f aca="false">H53/2</f>
+        <v>2</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2314,7 +2354,7 @@
       <c r="G54" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="H54" s="2" t="n">
+      <c r="H54" s="3" t="n">
         <v>4</v>
       </c>
       <c r="I54" s="0" t="n">
@@ -2323,9 +2363,9 @@
       <c r="J54" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="K54" s="2" t="n">
-        <f aca="false">H54/4</f>
-        <v>1</v>
+      <c r="K54" s="0" t="n">
+        <f aca="false">H54/2</f>
+        <v>2</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2350,7 +2390,7 @@
       <c r="G55" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="H55" s="2" t="n">
+      <c r="H55" s="3" t="n">
         <v>4</v>
       </c>
       <c r="I55" s="0" t="n">
@@ -2359,9 +2399,9 @@
       <c r="J55" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="K55" s="2" t="n">
-        <f aca="false">H55/4</f>
-        <v>1</v>
+      <c r="K55" s="0" t="n">
+        <f aca="false">H55/2</f>
+        <v>2</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2386,7 +2426,7 @@
       <c r="G56" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="H56" s="2" t="n">
+      <c r="H56" s="3" t="n">
         <v>4</v>
       </c>
       <c r="I56" s="0" t="n">
@@ -2395,9 +2435,9 @@
       <c r="J56" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="K56" s="2" t="n">
-        <f aca="false">H56/4</f>
-        <v>1</v>
+      <c r="K56" s="0" t="n">
+        <f aca="false">H56/2</f>
+        <v>2</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2422,7 +2462,7 @@
       <c r="G57" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="H57" s="2" t="n">
+      <c r="H57" s="3" t="n">
         <v>4</v>
       </c>
       <c r="I57" s="0" t="n">
@@ -2431,9 +2471,9 @@
       <c r="J57" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="K57" s="2" t="n">
-        <f aca="false">H57/4</f>
-        <v>1</v>
+      <c r="K57" s="0" t="n">
+        <f aca="false">H57/2</f>
+        <v>2</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2458,7 +2498,7 @@
       <c r="G58" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="H58" s="2" t="n">
+      <c r="H58" s="3" t="n">
         <v>4</v>
       </c>
       <c r="I58" s="0" t="n">
@@ -2467,9 +2507,9 @@
       <c r="J58" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="K58" s="2" t="n">
-        <f aca="false">H58/4</f>
-        <v>1</v>
+      <c r="K58" s="0" t="n">
+        <f aca="false">H58/2</f>
+        <v>2</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2494,7 +2534,7 @@
       <c r="G59" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="H59" s="2" t="n">
+      <c r="H59" s="3" t="n">
         <v>4</v>
       </c>
       <c r="I59" s="0" t="n">
@@ -2503,9 +2543,9 @@
       <c r="J59" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="K59" s="2" t="n">
-        <f aca="false">H59/4</f>
-        <v>1</v>
+      <c r="K59" s="0" t="n">
+        <f aca="false">H59/2</f>
+        <v>2</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2530,7 +2570,7 @@
       <c r="G60" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="H60" s="2" t="n">
+      <c r="H60" s="3" t="n">
         <v>4</v>
       </c>
       <c r="I60" s="0" t="n">
@@ -2539,9 +2579,9 @@
       <c r="J60" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="K60" s="2" t="n">
-        <f aca="false">H60/4</f>
-        <v>1</v>
+      <c r="K60" s="0" t="n">
+        <f aca="false">H60/2</f>
+        <v>2</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2566,7 +2606,7 @@
       <c r="G61" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="H61" s="2" t="n">
+      <c r="H61" s="3" t="n">
         <v>4</v>
       </c>
       <c r="I61" s="0" t="n">
@@ -2575,9 +2615,9 @@
       <c r="J61" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="K61" s="2" t="n">
-        <f aca="false">H61/4</f>
-        <v>1</v>
+      <c r="K61" s="0" t="n">
+        <f aca="false">H61/2</f>
+        <v>2</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2602,7 +2642,7 @@
       <c r="G62" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="H62" s="2" t="n">
+      <c r="H62" s="3" t="n">
         <v>4</v>
       </c>
       <c r="I62" s="0" t="n">
@@ -2611,9 +2651,9 @@
       <c r="J62" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="K62" s="2" t="n">
-        <f aca="false">H62/4</f>
-        <v>1</v>
+      <c r="K62" s="0" t="n">
+        <f aca="false">H62/2</f>
+        <v>2</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2638,7 +2678,7 @@
       <c r="G63" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="H63" s="2" t="n">
+      <c r="H63" s="3" t="n">
         <v>4</v>
       </c>
       <c r="I63" s="0" t="n">
@@ -2647,9 +2687,9 @@
       <c r="J63" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="K63" s="2" t="n">
-        <f aca="false">H63/4</f>
-        <v>1</v>
+      <c r="K63" s="0" t="n">
+        <f aca="false">H63/2</f>
+        <v>2</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2674,7 +2714,7 @@
       <c r="G64" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="H64" s="2" t="n">
+      <c r="H64" s="3" t="n">
         <v>4</v>
       </c>
       <c r="I64" s="0" t="n">
@@ -2683,9 +2723,9 @@
       <c r="J64" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="K64" s="2" t="n">
-        <f aca="false">H64/4</f>
-        <v>1</v>
+      <c r="K64" s="0" t="n">
+        <f aca="false">H64/2</f>
+        <v>2</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2710,7 +2750,7 @@
       <c r="G65" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="H65" s="2" t="n">
+      <c r="H65" s="3" t="n">
         <v>4</v>
       </c>
       <c r="I65" s="0" t="n">
@@ -2719,9 +2759,9 @@
       <c r="J65" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="K65" s="2" t="n">
-        <f aca="false">H65/4</f>
-        <v>1</v>
+      <c r="K65" s="0" t="n">
+        <f aca="false">H65/2</f>
+        <v>2</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2746,7 +2786,7 @@
       <c r="G66" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="H66" s="2" t="n">
+      <c r="H66" s="3" t="n">
         <v>4</v>
       </c>
       <c r="I66" s="0" t="n">
@@ -2755,9 +2795,9 @@
       <c r="J66" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="K66" s="2" t="n">
-        <f aca="false">H66/4</f>
-        <v>1</v>
+      <c r="K66" s="0" t="n">
+        <f aca="false">H66/2</f>
+        <v>2</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2782,7 +2822,7 @@
       <c r="G67" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="H67" s="2" t="n">
+      <c r="H67" s="3" t="n">
         <v>4</v>
       </c>
       <c r="I67" s="0" t="n">
@@ -2791,9 +2831,9 @@
       <c r="J67" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="K67" s="2" t="n">
-        <f aca="false">H67/4</f>
-        <v>1</v>
+      <c r="K67" s="0" t="n">
+        <f aca="false">H67/2</f>
+        <v>2</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2818,7 +2858,7 @@
       <c r="G68" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="H68" s="2" t="n">
+      <c r="H68" s="3" t="n">
         <v>4</v>
       </c>
       <c r="I68" s="0" t="n">
@@ -2827,9 +2867,9 @@
       <c r="J68" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="K68" s="2" t="n">
-        <f aca="false">H68/4</f>
-        <v>1</v>
+      <c r="K68" s="0" t="n">
+        <f aca="false">H68/2</f>
+        <v>2</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2854,7 +2894,7 @@
       <c r="G69" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="H69" s="2" t="n">
+      <c r="H69" s="3" t="n">
         <v>4</v>
       </c>
       <c r="I69" s="0" t="n">
@@ -2863,9 +2903,9 @@
       <c r="J69" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="K69" s="2" t="n">
-        <f aca="false">H69/4</f>
-        <v>1</v>
+      <c r="K69" s="0" t="n">
+        <f aca="false">H69/2</f>
+        <v>2</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2890,7 +2930,7 @@
       <c r="G70" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="H70" s="2" t="n">
+      <c r="H70" s="3" t="n">
         <v>4</v>
       </c>
       <c r="I70" s="0" t="n">
@@ -2899,9 +2939,9 @@
       <c r="J70" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="K70" s="2" t="n">
-        <f aca="false">H70/4</f>
-        <v>1</v>
+      <c r="K70" s="0" t="n">
+        <f aca="false">H70/2</f>
+        <v>2</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2926,7 +2966,7 @@
       <c r="G71" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="H71" s="2" t="n">
+      <c r="H71" s="3" t="n">
         <v>4</v>
       </c>
       <c r="I71" s="0" t="n">
@@ -2935,9 +2975,9 @@
       <c r="J71" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="K71" s="2" t="n">
-        <f aca="false">H71/4</f>
-        <v>1</v>
+      <c r="K71" s="0" t="n">
+        <f aca="false">H71/2</f>
+        <v>2</v>
       </c>
     </row>
     <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/MainTop/26.08.2024/ozon_print_A.xlsx
+++ b/MainTop/26.08.2024/ozon_print_A.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="85">
   <si>
     <t xml:space="preserve">Артикул</t>
   </si>
@@ -139,79 +139,76 @@
     <t xml:space="preserve">Термонаклейка Мона Лиза, Фрида Кало свадьба</t>
   </si>
   <si>
-    <t xml:space="preserve">Термонаклейка Леопард розовый крупный план</t>
+    <t xml:space="preserve">Термонаклейка Леди Баг сидит</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2_а5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Бабочки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Котята. Кот в ванной</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Минни Маус улыбка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Единороги набор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Черепашки Ниндзя классика</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Ежик Соник бежит из кольца</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Единорог очки сердечки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Динозавры</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Человек Паук и Веном половинки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Кот вцепился сползает вниз</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Котята. Кот с пиццей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Минни Маус фея костюм</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Холодное сердце 3 Эльза Анна Олаф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Миньоны горкой из 6 штук</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Русалочка дисней</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Эльза и Анна вместе холодное сердце</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Девочки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Плохая</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Марвел супергерои и надпись</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Ежик Соник Тейлз Наклз Мания</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Миньоны горкой из 3 штук</t>
   </si>
   <si>
     <t xml:space="preserve">Критическая</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Леди Баг сидит</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2_а5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Бабочки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Котята. Кот в ванной</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Минни Маус улыбка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Единороги набор</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Черепашки Ниндзя классика</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Ежик Соник бежит из кольца</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Единорог очки сердечки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Динозавры</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Человек Паук и Веном половинки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Кот вцепился сползает вниз</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Котята. Кот с пиццей</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Минни Маус фея костюм</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Холодное сердце 3 Эльза Анна Олаф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Миньоны горкой из 6 штук</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Русалочка дисней</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Эльза и Анна вместе холодное сердце</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Девочки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Плохая</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Марвел супергерои и надпись</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Ежик Соник Тейлз Наклз Мания</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Миньоны горкой из 3 штук</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Марвел супергерои круг</t>
@@ -287,7 +284,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -313,21 +310,6 @@
       <family val="0"/>
       <charset val="204"/>
     </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <name val="Cambria"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-      <family val="0"/>
-      <charset val="204"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -337,19 +319,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -378,19 +353,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -415,12 +378,12 @@
   <dimension ref="A1:K1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="2" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="8.67"/>
@@ -429,34 +392,34 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="0" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1401,35 +1364,35 @@
         <v>39</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>0.05</v>
+        <v>0.98</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>403.33</v>
+        <v>25.15</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="I28" s="0" t="n">
         <v>15</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="K28" s="0" t="n">
         <f aca="false">H28/2</f>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1437,166 +1400,166 @@
         <v>41</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>11</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>25.15</v>
+        <v>27.41</v>
       </c>
       <c r="G29" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I29" s="0" t="n">
         <v>15</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K29" s="0" t="n">
         <f aca="false">H29/2</f>
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>2.06</v>
+        <v>14.74</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>11</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>27.41</v>
+        <v>44.26</v>
       </c>
       <c r="G30" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I30" s="0" t="n">
         <v>15</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K30" s="0" t="n">
         <f aca="false">H30/2</f>
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>14.74</v>
+        <v>80</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>44.26</v>
+        <v>110.62</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I31" s="0" t="n">
         <v>15</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K31" s="0" t="n">
         <f aca="false">H31/2</f>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>0.4</v>
+        <v>0.32</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E32" s="0" t="s">
         <v>12</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>110.62</v>
+        <v>99</v>
       </c>
       <c r="G32" s="0" t="s">
         <v>12</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I32" s="0" t="n">
         <v>15</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K32" s="0" t="n">
         <f aca="false">H32/2</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>0.32</v>
+        <v>0.27</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>75</v>
+        <v>37.04</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>99</v>
+        <v>40.81</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>4</v>
@@ -1605,7 +1568,7 @@
         <v>15</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K33" s="0" t="n">
         <f aca="false">H33/2</f>
@@ -1614,22 +1577,22 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>37.04</v>
+        <v>32</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>11</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>40.81</v>
+        <v>36.53</v>
       </c>
       <c r="G34" s="0" t="s">
         <v>11</v>
@@ -1641,7 +1604,7 @@
         <v>15</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K34" s="0" t="n">
         <f aca="false">H34/2</f>
@@ -1650,22 +1613,22 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>32</v>
+        <v>62.5</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>36.53</v>
+        <v>38.82</v>
       </c>
       <c r="G35" s="0" t="s">
         <v>11</v>
@@ -1677,7 +1640,7 @@
         <v>15</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K35" s="0" t="n">
         <f aca="false">H35/2</f>
@@ -1686,25 +1649,25 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>62.5</v>
+        <v>63.64</v>
       </c>
       <c r="E36" s="0" t="s">
         <v>12</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>38.82</v>
+        <v>92.08</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>4</v>
@@ -1713,7 +1676,7 @@
         <v>15</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K36" s="0" t="n">
         <f aca="false">H36/2</f>
@@ -1722,25 +1685,25 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="D37" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="B37" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="C37" s="0" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="D37" s="0" t="n">
-        <v>63.64</v>
-      </c>
       <c r="E37" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>92.08</v>
+        <v>40</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>4</v>
@@ -1749,7 +1712,7 @@
         <v>15</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K37" s="0" t="n">
         <f aca="false">H37/2</f>
@@ -1758,22 +1721,22 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>50</v>
+        <v>64.71</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>40</v>
+        <v>46.9</v>
       </c>
       <c r="G38" s="0" t="s">
         <v>11</v>
@@ -1785,7 +1748,7 @@
         <v>15</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K38" s="0" t="n">
         <f aca="false">H38/2</f>
@@ -1794,25 +1757,25 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>0.17</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>64.71</v>
+        <v>105.88</v>
       </c>
       <c r="E39" s="0" t="s">
         <v>12</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>46.9</v>
+        <v>89.9</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H39" s="0" t="n">
         <v>4</v>
@@ -1821,7 +1784,7 @@
         <v>15</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K39" s="0" t="n">
         <f aca="false">H39/2</f>
@@ -1830,25 +1793,25 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>105.88</v>
+        <v>13.33</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>89.9</v>
+        <v>27.89</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H40" s="0" t="n">
         <v>4</v>
@@ -1857,7 +1820,7 @@
         <v>15</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K40" s="0" t="n">
         <f aca="false">H40/2</f>
@@ -1866,25 +1829,25 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>0.15</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>13.33</v>
+        <v>26.67</v>
       </c>
       <c r="E41" s="0" t="s">
         <v>11</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>27.89</v>
+        <v>76.33</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H41" s="0" t="n">
         <v>4</v>
@@ -1893,7 +1856,7 @@
         <v>15</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K41" s="0" t="n">
         <f aca="false">H41/2</f>
@@ -1902,34 +1865,34 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>26.67</v>
+        <v>30.77</v>
       </c>
       <c r="E42" s="0" t="s">
         <v>11</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>76.33</v>
+        <v>63</v>
       </c>
       <c r="G42" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="H42" s="3" t="n">
+      <c r="H42" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I42" s="0" t="n">
         <v>15</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K42" s="0" t="n">
         <f aca="false">H42/2</f>
@@ -1938,34 +1901,34 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>30.77</v>
+        <v>108.33</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>63</v>
+        <v>62.2</v>
       </c>
       <c r="G43" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="H43" s="3" t="n">
+      <c r="H43" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I43" s="0" t="n">
         <v>15</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K43" s="0" t="n">
         <f aca="false">H43/2</f>
@@ -1974,34 +1937,34 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>0.12</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>108.33</v>
+        <v>41.67</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>62.2</v>
+        <v>38.86</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="H44" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="H44" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I44" s="0" t="n">
         <v>15</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K44" s="0" t="n">
         <f aca="false">H44/2</f>
@@ -2010,34 +1973,34 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>0.12</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>41.67</v>
+        <v>125</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>38.86</v>
+        <v>174.86</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="H45" s="3" t="n">
+        <v>58</v>
+      </c>
+      <c r="H45" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I45" s="0" t="n">
         <v>15</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K45" s="0" t="n">
         <f aca="false">H45/2</f>
@@ -2049,31 +2012,31 @@
         <v>59</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E46" s="0" t="s">
         <v>12</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>174.86</v>
+        <v>148.67</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="H46" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="H46" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I46" s="0" t="n">
         <v>15</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K46" s="0" t="n">
         <f aca="false">H46/2</f>
@@ -2082,34 +2045,34 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>0.1</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="E47" s="0" t="s">
         <v>12</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>148.67</v>
+        <v>128</v>
       </c>
       <c r="G47" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="H47" s="3" t="n">
+      <c r="H47" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I47" s="0" t="n">
         <v>15</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K47" s="0" t="n">
         <f aca="false">H47/2</f>
@@ -2118,34 +2081,34 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>0.1</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>128</v>
+        <v>220.17</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="H48" s="3" t="n">
+        <v>62</v>
+      </c>
+      <c r="H48" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I48" s="0" t="n">
         <v>15</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K48" s="0" t="n">
         <f aca="false">H48/2</f>
@@ -2157,31 +2120,31 @@
         <v>63</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>0.1</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>190</v>
+        <v>90</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>220.17</v>
+        <v>79.5</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="H49" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="H49" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I49" s="0" t="n">
         <v>15</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K49" s="0" t="n">
         <f aca="false">H49/2</f>
@@ -2193,31 +2156,31 @@
         <v>64</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="E50" s="0" t="s">
         <v>12</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>79.5</v>
+        <v>106</v>
       </c>
       <c r="G50" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="H50" s="3" t="n">
+      <c r="H50" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I50" s="0" t="n">
         <v>15</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K50" s="0" t="n">
         <f aca="false">H50/2</f>
@@ -2229,31 +2192,31 @@
         <v>65</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>0.08</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>125</v>
+        <v>112.5</v>
       </c>
       <c r="E51" s="0" t="s">
         <v>12</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="G51" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="H51" s="3" t="n">
+      <c r="H51" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I51" s="0" t="n">
         <v>15</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K51" s="0" t="n">
         <f aca="false">H51/2</f>
@@ -2265,31 +2228,31 @@
         <v>66</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>112.5</v>
+        <v>100</v>
       </c>
       <c r="E52" s="0" t="s">
         <v>12</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>144</v>
+        <v>55.25</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="H52" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="H52" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I52" s="0" t="n">
         <v>15</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K52" s="0" t="n">
         <f aca="false">H52/2</f>
@@ -2301,31 +2264,31 @@
         <v>67</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C53" s="0" t="n">
         <v>0.07</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>100</v>
+        <v>42.86</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>55.25</v>
+        <v>69</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="H53" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="H53" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I53" s="0" t="n">
         <v>15</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K53" s="0" t="n">
         <f aca="false">H53/2</f>
@@ -2337,31 +2300,31 @@
         <v>68</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>0.07</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>42.86</v>
+        <v>14.29</v>
       </c>
       <c r="E54" s="0" t="s">
         <v>11</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>69</v>
+        <v>43.25</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="H54" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="H54" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I54" s="0" t="n">
         <v>15</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K54" s="0" t="n">
         <f aca="false">H54/2</f>
@@ -2373,31 +2336,31 @@
         <v>69</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>0.07</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>14.29</v>
+        <v>100</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>43.25</v>
+        <v>108</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="H55" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="H55" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I55" s="0" t="n">
         <v>15</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K55" s="0" t="n">
         <f aca="false">H55/2</f>
@@ -2409,31 +2372,31 @@
         <v>70</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C56" s="0" t="n">
         <v>0.07</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>100</v>
+        <v>85.71</v>
       </c>
       <c r="E56" s="0" t="s">
         <v>12</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>108</v>
+        <v>113.25</v>
       </c>
       <c r="G56" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="H56" s="3" t="n">
+      <c r="H56" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I56" s="0" t="n">
         <v>15</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K56" s="0" t="n">
         <f aca="false">H56/2</f>
@@ -2457,19 +2420,19 @@
         <v>12</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>113.25</v>
+        <v>94.5</v>
       </c>
       <c r="G57" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="H57" s="3" t="n">
+      <c r="H57" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I57" s="0" t="n">
         <v>15</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K57" s="0" t="n">
         <f aca="false">H57/2</f>
@@ -2484,28 +2447,28 @@
         <v>6</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>0.07</v>
+        <v>0.05</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>85.71</v>
+        <v>120</v>
       </c>
       <c r="E58" s="0" t="s">
         <v>12</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>94.5</v>
+        <v>126.67</v>
       </c>
       <c r="G58" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="H58" s="3" t="n">
+      <c r="H58" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I58" s="0" t="n">
         <v>15</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K58" s="0" t="n">
         <f aca="false">H58/2</f>
@@ -2517,31 +2480,31 @@
         <v>73</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C59" s="0" t="n">
         <v>0.05</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="E59" s="0" t="s">
         <v>12</v>
       </c>
       <c r="F59" s="0" t="n">
-        <v>126.67</v>
+        <v>170</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="H59" s="3" t="n">
+        <v>58</v>
+      </c>
+      <c r="H59" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I59" s="0" t="n">
         <v>15</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K59" s="0" t="n">
         <f aca="false">H59/2</f>
@@ -2553,31 +2516,31 @@
         <v>74</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C60" s="0" t="n">
         <v>0.05</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>170</v>
+        <v>245.33</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="H60" s="3" t="n">
+        <v>62</v>
+      </c>
+      <c r="H60" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I60" s="0" t="n">
         <v>15</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K60" s="0" t="n">
         <f aca="false">H60/2</f>
@@ -2589,31 +2552,31 @@
         <v>75</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C61" s="0" t="n">
         <v>0.05</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>245.33</v>
+        <v>244.33</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="H61" s="3" t="n">
+        <v>62</v>
+      </c>
+      <c r="H61" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I61" s="0" t="n">
         <v>15</v>
       </c>
       <c r="J61" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K61" s="0" t="n">
         <f aca="false">H61/2</f>
@@ -2625,31 +2588,31 @@
         <v>76</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C62" s="0" t="n">
         <v>0.05</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>244.33</v>
+        <v>107.67</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="H62" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="H62" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I62" s="0" t="n">
         <v>15</v>
       </c>
       <c r="J62" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K62" s="0" t="n">
         <f aca="false">H62/2</f>
@@ -2661,31 +2624,31 @@
         <v>77</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C63" s="0" t="n">
         <v>0.05</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="E63" s="0" t="s">
         <v>12</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>107.67</v>
+        <v>123.33</v>
       </c>
       <c r="G63" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="H63" s="3" t="n">
+      <c r="H63" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I63" s="0" t="n">
         <v>15</v>
       </c>
       <c r="J63" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K63" s="0" t="n">
         <f aca="false">H63/2</f>
@@ -2697,31 +2660,31 @@
         <v>78</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C64" s="0" t="n">
         <v>0.05</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F64" s="0" t="n">
-        <v>123.33</v>
+        <v>101</v>
       </c>
       <c r="G64" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="H64" s="3" t="n">
+      <c r="H64" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I64" s="0" t="n">
         <v>15</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K64" s="0" t="n">
         <f aca="false">H64/2</f>
@@ -2733,31 +2696,31 @@
         <v>79</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C65" s="0" t="n">
         <v>0.05</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>101</v>
+        <v>177.33</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="H65" s="3" t="n">
+        <v>58</v>
+      </c>
+      <c r="H65" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I65" s="0" t="n">
         <v>15</v>
       </c>
       <c r="J65" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K65" s="0" t="n">
         <f aca="false">H65/2</f>
@@ -2769,31 +2732,31 @@
         <v>80</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C66" s="0" t="n">
         <v>0.05</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="E66" s="0" t="s">
         <v>12</v>
       </c>
       <c r="F66" s="0" t="n">
-        <v>177.33</v>
+        <v>141.33</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="H66" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="H66" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I66" s="0" t="n">
         <v>15</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K66" s="0" t="n">
         <f aca="false">H66/2</f>
@@ -2805,31 +2768,31 @@
         <v>81</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C67" s="0" t="n">
         <v>0.05</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="E67" s="0" t="s">
         <v>12</v>
       </c>
       <c r="F67" s="0" t="n">
-        <v>141.33</v>
+        <v>178.33</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="H67" s="3" t="n">
+        <v>58</v>
+      </c>
+      <c r="H67" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I67" s="0" t="n">
         <v>15</v>
       </c>
       <c r="J67" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K67" s="0" t="n">
         <f aca="false">H67/2</f>
@@ -2841,67 +2804,67 @@
         <v>82</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" s="0" t="n">
         <v>0.05</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="E68" s="0" t="s">
         <v>12</v>
       </c>
       <c r="F68" s="0" t="n">
-        <v>178.33</v>
+        <v>125</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="H68" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="H68" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I68" s="0" t="n">
         <v>15</v>
       </c>
       <c r="J68" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K68" s="0" t="n">
         <f aca="false">H68/2</f>
         <v>2</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
         <v>83</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C69" s="0" t="n">
         <v>0.05</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="E69" s="0" t="s">
         <v>12</v>
       </c>
       <c r="F69" s="0" t="n">
-        <v>125</v>
+        <v>116.33</v>
       </c>
       <c r="G69" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="H69" s="3" t="n">
+      <c r="H69" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I69" s="0" t="n">
         <v>15</v>
       </c>
       <c r="J69" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K69" s="0" t="n">
         <f aca="false">H69/2</f>
@@ -2913,85 +2876,37 @@
         <v>84</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C70" s="0" t="n">
         <v>0.05</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="F70" s="0" t="n">
-        <v>116.33</v>
+        <v>101.67</v>
       </c>
       <c r="G70" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="H70" s="3" t="n">
+      <c r="H70" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I70" s="0" t="n">
         <v>15</v>
       </c>
       <c r="J70" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K70" s="0" t="n">
         <f aca="false">H70/2</f>
         <v>2</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="B71" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="C71" s="0" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="D71" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="E71" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="F71" s="0" t="n">
-        <v>101.67</v>
-      </c>
-      <c r="G71" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="H71" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="I71" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="J71" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="K71" s="0" t="n">
-        <f aca="false">H71/2</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
